--- a/Резы/Респа для ИТ-61б на 2019 год.xlsx
+++ b/Резы/Респа для ИТ-61б на 2019 год.xlsx
@@ -2883,8 +2883,10 @@
           <t>Администрирование в инфокоммуникационных системах: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>309</v>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>309, 215</t>
+        </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
@@ -3203,8 +3205,10 @@
         </is>
       </c>
       <c r="G19" s="4" t="n"/>
-      <c r="H19" s="3" t="n">
-        <v>203</v>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>203, 316</t>
+        </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>

--- a/Резы/Респа для ИТ-61б на 2019 год.xlsx
+++ b/Резы/Респа для ИТ-61б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,38 +114,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -173,35 +173,35 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -236,14 +236,14 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -689,7 +689,7 @@
     <col width="89.45" customWidth="1" min="6" max="6"/>
     <col width="89.45" customWidth="1" min="7" max="7"/>
     <col width="47.4" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -873,7 +873,7 @@
       <c r="H6" s="7" t="n"/>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -1052,7 +1052,7 @@
       <c r="H13" s="7" t="n"/>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1141,7 +1141,7 @@
       <c r="G16" s="4" t="n"/>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1299,7 +1299,7 @@
     <col width="79.3" customWidth="1" min="5" max="5"/>
     <col width="29.5" customWidth="1" min="6" max="6"/>
     <col width="103.95" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
     <col width="25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -1475,7 +1475,7 @@
       <c r="G6" s="7" t="n"/>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
@@ -1651,7 +1651,7 @@
       <c r="G13" s="7" t="n"/>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr">
@@ -1711,7 +1711,7 @@
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
@@ -2108,7 +2108,7 @@
       <c r="H6" s="7" t="n"/>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 VIII</t>
         </is>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="H13" s="4" t="n"/>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -2423,7 +2423,7 @@
       <c r="H16" s="4" t="n"/>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 VIII</t>
         </is>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
